--- a/Team-Data/2013-14/3-9-2013-14.xlsx
+++ b/Team-Data/2013-14/3-9-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,19 +811,19 @@
         <v>-1</v>
       </c>
       <c r="AD2" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG2" t="n">
         <v>19</v>
       </c>
       <c r="AH2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
         <v>18</v>
@@ -774,7 +841,7 @@
         <v>2</v>
       </c>
       <c r="AN2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
         <v>21</v>
@@ -786,7 +853,7 @@
         <v>6</v>
       </c>
       <c r="AR2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS2" t="n">
         <v>21</v>
@@ -816,7 +883,7 @@
         <v>26</v>
       </c>
       <c r="BB2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC2" t="n">
         <v>16</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-9-2013-14</t>
+          <t>2014-03-09</t>
         </is>
       </c>
     </row>
@@ -848,61 +915,61 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" t="n">
         <v>41</v>
       </c>
       <c r="G3" t="n">
-        <v>0.349</v>
+        <v>0.339</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
       </c>
       <c r="I3" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="J3" t="n">
-        <v>83.59999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="L3" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M3" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="N3" t="n">
         <v>0.327</v>
       </c>
       <c r="O3" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P3" t="n">
         <v>21.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.769</v>
+        <v>0.771</v>
       </c>
       <c r="R3" t="n">
         <v>11.7</v>
       </c>
       <c r="S3" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T3" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U3" t="n">
-        <v>20.6</v>
+        <v>20.3</v>
       </c>
       <c r="V3" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="W3" t="n">
         <v>7.2</v>
@@ -917,34 +984,34 @@
         <v>21.4</v>
       </c>
       <c r="AA3" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.59999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>-3.6</v>
+        <v>-3.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AF3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AH3" t="n">
         <v>28</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AJ3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK3" t="n">
         <v>26</v>
@@ -953,7 +1020,7 @@
         <v>24</v>
       </c>
       <c r="AM3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN3" t="n">
         <v>28</v>
@@ -962,7 +1029,7 @@
         <v>23</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ3" t="n">
         <v>11</v>
@@ -971,19 +1038,19 @@
         <v>11</v>
       </c>
       <c r="AS3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU3" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AV3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX3" t="n">
         <v>20</v>
@@ -995,10 +1062,10 @@
         <v>19</v>
       </c>
       <c r="BA3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC3" t="n">
         <v>24</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-9-2013-14</t>
+          <t>2014-03-09</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="n">
         <v>30</v>
       </c>
       <c r="G4" t="n">
-        <v>0.508</v>
+        <v>0.5</v>
       </c>
       <c r="H4" t="n">
         <v>48.4</v>
@@ -1051,34 +1118,34 @@
         <v>78.3</v>
       </c>
       <c r="K4" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L4" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M4" t="n">
         <v>22.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.361</v>
+        <v>0.359</v>
       </c>
       <c r="O4" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P4" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.763</v>
+        <v>0.765</v>
       </c>
       <c r="R4" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="S4" t="n">
         <v>29.5</v>
       </c>
       <c r="T4" t="n">
-        <v>38.4</v>
+        <v>38.6</v>
       </c>
       <c r="U4" t="n">
         <v>20.7</v>
@@ -1087,10 +1154,10 @@
         <v>14.5</v>
       </c>
       <c r="W4" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="X4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y4" t="n">
         <v>4.1</v>
@@ -1102,22 +1169,22 @@
         <v>20.9</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.40000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>-1.5</v>
+        <v>-1.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF4" t="n">
         <v>15</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH4" t="n">
         <v>10</v>
@@ -1129,31 +1196,31 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL4" t="n">
         <v>14</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>13</v>
       </c>
       <c r="AM4" t="n">
         <v>11</v>
       </c>
       <c r="AN4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AP4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ4" t="n">
         <v>14</v>
       </c>
       <c r="AR4" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AS4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT4" t="n">
         <v>29</v>
@@ -1162,13 +1229,13 @@
         <v>23</v>
       </c>
       <c r="AV4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY4" t="n">
         <v>8</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-9-2013-14</t>
+          <t>2014-03-09</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
@@ -1332,10 +1399,10 @@
         <v>24</v>
       </c>
       <c r="AR5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT5" t="n">
         <v>22</v>
@@ -1362,7 +1429,7 @@
         <v>9</v>
       </c>
       <c r="BB5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC5" t="n">
         <v>18</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-9-2013-14</t>
+          <t>2014-03-09</t>
         </is>
       </c>
     </row>
@@ -1394,25 +1461,25 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" t="n">
         <v>28</v>
       </c>
       <c r="G6" t="n">
-        <v>0.556</v>
+        <v>0.548</v>
       </c>
       <c r="H6" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I6" t="n">
         <v>34.6</v>
       </c>
       <c r="J6" t="n">
-        <v>80.40000000000001</v>
+        <v>80.2</v>
       </c>
       <c r="K6" t="n">
         <v>0.431</v>
@@ -1424,16 +1491,16 @@
         <v>17.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="O6" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="P6" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.772</v>
+        <v>0.773</v>
       </c>
       <c r="R6" t="n">
         <v>11.9</v>
@@ -1454,25 +1521,25 @@
         <v>7.2</v>
       </c>
       <c r="X6" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y6" t="n">
         <v>6.2</v>
       </c>
       <c r="Z6" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AA6" t="n">
         <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.09999999999999</v>
+        <v>93</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
@@ -1484,7 +1551,7 @@
         <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI6" t="n">
         <v>30</v>
@@ -1502,37 +1569,37 @@
         <v>27</v>
       </c>
       <c r="AN6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS6" t="n">
         <v>7</v>
       </c>
       <c r="AT6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AU6" t="n">
         <v>11</v>
       </c>
       <c r="AV6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW6" t="n">
         <v>21</v>
       </c>
       <c r="AX6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY6" t="n">
         <v>29</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-9-2013-14</t>
+          <t>2014-03-09</t>
         </is>
       </c>
     </row>
@@ -1666,10 +1733,10 @@
         <v>22</v>
       </c>
       <c r="AH7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ7" t="n">
         <v>7</v>
@@ -1681,19 +1748,19 @@
         <v>19</v>
       </c>
       <c r="AM7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN7" t="n">
         <v>21</v>
       </c>
       <c r="AO7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP7" t="n">
         <v>17</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AQ7" t="n">
         <v>18</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>19</v>
       </c>
       <c r="AR7" t="n">
         <v>4</v>
@@ -1705,7 +1772,7 @@
         <v>10</v>
       </c>
       <c r="AU7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV7" t="n">
         <v>10</v>
@@ -1723,7 +1790,7 @@
         <v>8</v>
       </c>
       <c r="BA7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB7" t="n">
         <v>23</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-9-2013-14</t>
+          <t>2014-03-09</t>
         </is>
       </c>
     </row>
@@ -1758,25 +1825,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" t="n">
         <v>26</v>
       </c>
       <c r="G8" t="n">
-        <v>0.594</v>
+        <v>0.587</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
       </c>
       <c r="I8" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="J8" t="n">
-        <v>83.5</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K8" t="n">
         <v>0.473</v>
@@ -1791,19 +1858,19 @@
         <v>0.378</v>
       </c>
       <c r="O8" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="P8" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="Q8" t="n">
         <v>0.8</v>
       </c>
       <c r="R8" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S8" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T8" t="n">
         <v>40.2</v>
@@ -1812,7 +1879,7 @@
         <v>23.6</v>
       </c>
       <c r="V8" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="W8" t="n">
         <v>8.800000000000001</v>
@@ -1824,28 +1891,28 @@
         <v>3.7</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA8" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.5</v>
+        <v>104.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
         <v>29</v>
@@ -1854,13 +1921,13 @@
         <v>3</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM8" t="n">
         <v>12</v>
@@ -1872,7 +1939,7 @@
         <v>18</v>
       </c>
       <c r="AP8" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
@@ -1881,7 +1948,7 @@
         <v>23</v>
       </c>
       <c r="AS8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT8" t="n">
         <v>27</v>
@@ -1896,16 +1963,16 @@
         <v>3</v>
       </c>
       <c r="AX8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ8" t="n">
         <v>14</v>
       </c>
       <c r="BA8" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BB8" t="n">
         <v>8</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-9-2013-14</t>
+          <t>2014-03-09</t>
         </is>
       </c>
     </row>
@@ -1940,19 +2007,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" t="n">
         <v>27</v>
       </c>
       <c r="F9" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" t="n">
-        <v>0.435</v>
+        <v>0.443</v>
       </c>
       <c r="H9" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="I9" t="n">
         <v>38.1</v>
@@ -1970,7 +2037,7 @@
         <v>23.2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="O9" t="n">
         <v>18.8</v>
@@ -1979,7 +2046,7 @@
         <v>26.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.718</v>
+        <v>0.717</v>
       </c>
       <c r="R9" t="n">
         <v>12.4</v>
@@ -1991,46 +2058,46 @@
         <v>45.3</v>
       </c>
       <c r="U9" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="V9" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="W9" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X9" t="n">
         <v>5.7</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AB9" t="n">
-        <v>103.4</v>
+        <v>103.3</v>
       </c>
       <c r="AC9" t="n">
         <v>-2.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AE9" t="n">
         <v>18</v>
       </c>
       <c r="AF9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG9" t="n">
         <v>18</v>
       </c>
       <c r="AH9" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AI9" t="n">
         <v>12</v>
@@ -2042,7 +2109,7 @@
         <v>19</v>
       </c>
       <c r="AL9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM9" t="n">
         <v>9</v>
@@ -2051,7 +2118,7 @@
         <v>13</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP9" t="n">
         <v>5</v>
@@ -2072,16 +2139,16 @@
         <v>12</v>
       </c>
       <c r="AV9" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AW9" t="n">
         <v>20</v>
       </c>
       <c r="AX9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ9" t="n">
         <v>30</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-9-2013-14</t>
+          <t>2014-03-09</t>
         </is>
       </c>
     </row>
@@ -2122,22 +2189,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" t="n">
         <v>24</v>
       </c>
       <c r="F10" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" t="n">
-        <v>0.381</v>
+        <v>0.387</v>
       </c>
       <c r="H10" t="n">
         <v>48.2</v>
       </c>
       <c r="I10" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="J10" t="n">
         <v>86.8</v>
@@ -2146,37 +2213,37 @@
         <v>0.449</v>
       </c>
       <c r="L10" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M10" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="N10" t="n">
         <v>0.31</v>
       </c>
       <c r="O10" t="n">
-        <v>17.3</v>
+        <v>17.1</v>
       </c>
       <c r="P10" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.671</v>
+        <v>0.67</v>
       </c>
       <c r="R10" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="S10" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T10" t="n">
-        <v>45.1</v>
+        <v>45</v>
       </c>
       <c r="U10" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="V10" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W10" t="n">
         <v>8.699999999999999</v>
@@ -2191,16 +2258,16 @@
         <v>20.3</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>100.9</v>
+        <v>100.8</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.9</v>
+        <v>-2.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -2212,7 +2279,7 @@
         <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI10" t="n">
         <v>8</v>
@@ -2221,7 +2288,7 @@
         <v>4</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL10" t="n">
         <v>29</v>
@@ -2233,7 +2300,7 @@
         <v>29</v>
       </c>
       <c r="AO10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP10" t="n">
         <v>6</v>
@@ -2248,7 +2315,7 @@
         <v>24</v>
       </c>
       <c r="AT10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU10" t="n">
         <v>21</v>
@@ -2269,10 +2336,10 @@
         <v>15</v>
       </c>
       <c r="BA10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC10" t="n">
         <v>23</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-9-2013-14</t>
+          <t>2014-03-09</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" t="n">
         <v>24</v>
       </c>
       <c r="G11" t="n">
-        <v>0.625</v>
+        <v>0.619</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
@@ -2325,7 +2392,7 @@
         <v>85.3</v>
       </c>
       <c r="K11" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L11" t="n">
         <v>9.1</v>
@@ -2334,34 +2401,34 @@
         <v>24.3</v>
       </c>
       <c r="N11" t="n">
-        <v>0.376</v>
+        <v>0.375</v>
       </c>
       <c r="O11" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P11" t="n">
         <v>21.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.745</v>
+        <v>0.747</v>
       </c>
       <c r="R11" t="n">
         <v>11.3</v>
       </c>
       <c r="S11" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="T11" t="n">
-        <v>45.5</v>
+        <v>45.7</v>
       </c>
       <c r="U11" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="V11" t="n">
         <v>15.5</v>
       </c>
       <c r="W11" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X11" t="n">
         <v>5.2</v>
@@ -2373,16 +2440,16 @@
         <v>21.9</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB11" t="n">
-        <v>103.5</v>
+        <v>103.4</v>
       </c>
       <c r="AC11" t="n">
         <v>4.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2394,16 +2461,16 @@
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ11" t="n">
         <v>6</v>
       </c>
       <c r="AK11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AL11" t="n">
         <v>7</v>
@@ -2412,7 +2479,7 @@
         <v>7</v>
       </c>
       <c r="AN11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO11" t="n">
         <v>22</v>
@@ -2421,7 +2488,7 @@
         <v>20</v>
       </c>
       <c r="AQ11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR11" t="n">
         <v>15</v>
@@ -2442,13 +2509,13 @@
         <v>12</v>
       </c>
       <c r="AX11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY11" t="n">
         <v>10</v>
       </c>
       <c r="AZ11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA11" t="n">
         <v>19</v>
@@ -2457,7 +2524,7 @@
         <v>10</v>
       </c>
       <c r="BC11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-9-2013-14</t>
+          <t>2014-03-09</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E12" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="n">
         <v>19</v>
       </c>
       <c r="G12" t="n">
-        <v>0.698</v>
+        <v>0.694</v>
       </c>
       <c r="H12" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I12" t="n">
         <v>37.9</v>
       </c>
       <c r="J12" t="n">
-        <v>79.59999999999999</v>
+        <v>79.5</v>
       </c>
       <c r="K12" t="n">
         <v>0.476</v>
@@ -2513,19 +2580,19 @@
         <v>9.199999999999999</v>
       </c>
       <c r="M12" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="N12" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="O12" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="P12" t="n">
-        <v>31.1</v>
+        <v>30.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.697</v>
+        <v>0.696</v>
       </c>
       <c r="R12" t="n">
         <v>11.2</v>
@@ -2537,13 +2604,13 @@
         <v>45.2</v>
       </c>
       <c r="U12" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="V12" t="n">
         <v>16.5</v>
       </c>
       <c r="W12" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="X12" t="n">
         <v>5.6</v>
@@ -2552,22 +2619,22 @@
         <v>5.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="AA12" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>106.6</v>
+        <v>106.4</v>
       </c>
       <c r="AC12" t="n">
         <v>5</v>
       </c>
       <c r="AD12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF12" t="n">
         <v>5</v>
@@ -2576,7 +2643,7 @@
         <v>5</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI12" t="n">
         <v>15</v>
@@ -2585,7 +2652,7 @@
         <v>28</v>
       </c>
       <c r="AK12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL12" t="n">
         <v>5</v>
@@ -2594,10 +2661,10 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP12" t="n">
         <v>1</v>
@@ -2609,19 +2676,19 @@
         <v>16</v>
       </c>
       <c r="AS12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AX12" t="n">
         <v>6</v>
@@ -2630,7 +2697,7 @@
         <v>22</v>
       </c>
       <c r="AZ12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-9-2013-14</t>
+          <t>2014-03-09</t>
         </is>
       </c>
     </row>
@@ -2668,25 +2735,25 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" t="n">
         <v>46</v>
       </c>
       <c r="F13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G13" t="n">
-        <v>0.73</v>
+        <v>0.742</v>
       </c>
       <c r="H13" t="n">
         <v>48.2</v>
       </c>
       <c r="I13" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J13" t="n">
-        <v>80.90000000000001</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K13" t="n">
         <v>0.453</v>
@@ -2695,16 +2762,16 @@
         <v>6.8</v>
       </c>
       <c r="M13" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="N13" t="n">
-        <v>0.354</v>
+        <v>0.353</v>
       </c>
       <c r="O13" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="P13" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="Q13" t="n">
         <v>0.783</v>
@@ -2713,52 +2780,52 @@
         <v>10.3</v>
       </c>
       <c r="S13" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="T13" t="n">
         <v>45.2</v>
       </c>
       <c r="U13" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V13" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W13" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X13" t="n">
         <v>5.7</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="AA13" t="n">
         <v>21.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>98.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="AC13" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
       </c>
       <c r="AF13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI13" t="n">
         <v>22</v>
@@ -2770,13 +2837,13 @@
         <v>13</v>
       </c>
       <c r="AL13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM13" t="n">
         <v>24</v>
       </c>
       <c r="AN13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO13" t="n">
         <v>11</v>
@@ -2794,25 +2861,25 @@
         <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU13" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AV13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW13" t="n">
         <v>24</v>
       </c>
       <c r="AX13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY13" t="n">
         <v>14</v>
       </c>
       <c r="AZ13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA13" t="n">
         <v>6</v>
@@ -2821,7 +2888,7 @@
         <v>20</v>
       </c>
       <c r="BC13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-9-2013-14</t>
+          <t>2014-03-09</t>
         </is>
       </c>
     </row>
@@ -2943,7 +3010,7 @@
         <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ14" t="n">
         <v>22</v>
@@ -2982,7 +3049,7 @@
         <v>3</v>
       </c>
       <c r="AV14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW14" t="n">
         <v>9</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-9-2013-14</t>
+          <t>2014-03-09</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15" t="n">
         <v>42</v>
       </c>
       <c r="G15" t="n">
-        <v>0.344</v>
+        <v>0.333</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
@@ -3056,34 +3123,34 @@
         <v>0.449</v>
       </c>
       <c r="L15" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="M15" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="N15" t="n">
         <v>0.383</v>
       </c>
       <c r="O15" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P15" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.752</v>
+        <v>0.75</v>
       </c>
       <c r="R15" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S15" t="n">
         <v>32.4</v>
       </c>
       <c r="T15" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U15" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="V15" t="n">
         <v>15.5</v>
@@ -3098,22 +3165,22 @@
         <v>4.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="AB15" t="n">
-        <v>102</v>
+        <v>101.8</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.9</v>
+        <v>-6</v>
       </c>
       <c r="AD15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE15" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AF15" t="n">
         <v>27</v>
@@ -3134,7 +3201,7 @@
         <v>16</v>
       </c>
       <c r="AL15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM15" t="n">
         <v>6</v>
@@ -3143,22 +3210,22 @@
         <v>3</v>
       </c>
       <c r="AO15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP15" t="n">
         <v>19</v>
       </c>
       <c r="AQ15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS15" t="n">
         <v>13</v>
       </c>
       <c r="AT15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU15" t="n">
         <v>4</v>
@@ -3167,7 +3234,7 @@
         <v>24</v>
       </c>
       <c r="AW15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX15" t="n">
         <v>3</v>
@@ -3176,10 +3243,10 @@
         <v>13</v>
       </c>
       <c r="AZ15" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB15" t="n">
         <v>12</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-9-2013-14</t>
+          <t>2014-03-09</t>
         </is>
       </c>
     </row>
@@ -3292,19 +3359,19 @@
         <v>1</v>
       </c>
       <c r="AD16" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AE16" t="n">
         <v>10</v>
       </c>
       <c r="AF16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AI16" t="n">
         <v>17</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO16" t="n">
         <v>29</v>
@@ -3343,7 +3410,7 @@
         <v>18</v>
       </c>
       <c r="AU16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV16" t="n">
         <v>4</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-9-2013-14</t>
+          <t>2014-03-09</t>
         </is>
       </c>
     </row>
@@ -3396,28 +3463,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" t="n">
         <v>43</v>
       </c>
       <c r="F17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G17" t="n">
-        <v>0.717</v>
+        <v>0.729</v>
       </c>
       <c r="H17" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I17" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="J17" t="n">
         <v>77</v>
       </c>
       <c r="K17" t="n">
-        <v>0.508</v>
+        <v>0.509</v>
       </c>
       <c r="L17" t="n">
         <v>8.1</v>
@@ -3435,31 +3502,31 @@
         <v>23.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.761</v>
+        <v>0.758</v>
       </c>
       <c r="R17" t="n">
         <v>7.5</v>
       </c>
       <c r="S17" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T17" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="U17" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="V17" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W17" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="X17" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Z17" t="n">
         <v>20.2</v>
@@ -3468,19 +3535,19 @@
         <v>20.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>104.1</v>
+        <v>104.4</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AD17" t="n">
         <v>30</v>
       </c>
       <c r="AE17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG17" t="n">
         <v>4</v>
@@ -3489,7 +3556,7 @@
         <v>9</v>
       </c>
       <c r="AI17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3498,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM17" t="n">
         <v>15</v>
@@ -3507,13 +3574,13 @@
         <v>10</v>
       </c>
       <c r="AO17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP17" t="n">
         <v>12</v>
       </c>
       <c r="AQ17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3528,7 +3595,7 @@
         <v>9</v>
       </c>
       <c r="AV17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AW17" t="n">
         <v>2</v>
@@ -3543,7 +3610,7 @@
         <v>12</v>
       </c>
       <c r="BA17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BB17" t="n">
         <v>9</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-9-2013-14</t>
+          <t>2014-03-09</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3695,13 +3762,13 @@
         <v>27</v>
       </c>
       <c r="AQ18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR18" t="n">
         <v>9</v>
       </c>
       <c r="AS18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT18" t="n">
         <v>25</v>
@@ -3710,13 +3777,13 @@
         <v>18</v>
       </c>
       <c r="AV18" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AW18" t="n">
         <v>28</v>
       </c>
       <c r="AX18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY18" t="n">
         <v>19</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-9-2013-14</t>
+          <t>2014-03-09</t>
         </is>
       </c>
     </row>
@@ -3760,25 +3827,25 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" t="n">
         <v>31</v>
       </c>
       <c r="F19" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>0.508</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J19" t="n">
-        <v>87.90000000000001</v>
+        <v>87.7</v>
       </c>
       <c r="K19" t="n">
         <v>0.439</v>
@@ -3793,10 +3860,10 @@
         <v>0.339</v>
       </c>
       <c r="O19" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="P19" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="Q19" t="n">
         <v>0.778</v>
@@ -3805,16 +3872,16 @@
         <v>12.9</v>
       </c>
       <c r="S19" t="n">
-        <v>32.7</v>
+        <v>32.9</v>
       </c>
       <c r="T19" t="n">
-        <v>45.6</v>
+        <v>45.7</v>
       </c>
       <c r="U19" t="n">
         <v>23.3</v>
       </c>
       <c r="V19" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="W19" t="n">
         <v>8.6</v>
@@ -3826,28 +3893,28 @@
         <v>5.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="AA19" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="AB19" t="n">
-        <v>106.2</v>
+        <v>106.3</v>
       </c>
       <c r="AC19" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AD19" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AE19" t="n">
         <v>15</v>
       </c>
       <c r="AF19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH19" t="n">
         <v>24</v>
@@ -3868,10 +3935,10 @@
         <v>14</v>
       </c>
       <c r="AN19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP19" t="n">
         <v>3</v>
@@ -3883,7 +3950,7 @@
         <v>2</v>
       </c>
       <c r="AS19" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AT19" t="n">
         <v>2</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-9-2013-14</t>
+          <t>2014-03-09</t>
         </is>
       </c>
     </row>
@@ -3942,25 +4009,25 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F20" t="n">
         <v>37</v>
       </c>
       <c r="G20" t="n">
-        <v>0.413</v>
+        <v>0.403</v>
       </c>
       <c r="H20" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="J20" t="n">
-        <v>83.09999999999999</v>
+        <v>83</v>
       </c>
       <c r="K20" t="n">
         <v>0.457</v>
@@ -3975,55 +4042,55 @@
         <v>0.379</v>
       </c>
       <c r="O20" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P20" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.765</v>
+        <v>0.766</v>
       </c>
       <c r="R20" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S20" t="n">
         <v>30.2</v>
       </c>
       <c r="T20" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U20" t="n">
         <v>21.3</v>
       </c>
       <c r="V20" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="W20" t="n">
         <v>7.9</v>
       </c>
       <c r="X20" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Y20" t="n">
         <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AA20" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>-2.6</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE20" t="n">
         <v>20</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>19</v>
       </c>
       <c r="AF20" t="n">
         <v>20</v>
@@ -4032,7 +4099,7 @@
         <v>20</v>
       </c>
       <c r="AH20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI20" t="n">
         <v>14</v>
@@ -4041,7 +4108,7 @@
         <v>15</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL20" t="n">
         <v>26</v>
@@ -4056,16 +4123,16 @@
         <v>15</v>
       </c>
       <c r="AP20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT20" t="n">
         <v>21</v>
@@ -4086,7 +4153,7 @@
         <v>27</v>
       </c>
       <c r="AZ20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA20" t="n">
         <v>20</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-9-2013-14</t>
+          <t>2014-03-09</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4287,7 @@
         <v>20</v>
       </c>
       <c r="AJ21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK21" t="n">
         <v>20</v>
@@ -4232,7 +4299,7 @@
         <v>5</v>
       </c>
       <c r="AN21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4241,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR21" t="n">
         <v>18</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-9-2013-14</t>
+          <t>2014-03-09</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" t="n">
         <v>46</v>
       </c>
       <c r="F22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G22" t="n">
-        <v>0.73</v>
+        <v>0.742</v>
       </c>
       <c r="H22" t="n">
         <v>48.2</v>
@@ -4324,16 +4391,16 @@
         <v>39.2</v>
       </c>
       <c r="J22" t="n">
-        <v>82.5</v>
+        <v>82.2</v>
       </c>
       <c r="K22" t="n">
-        <v>0.475</v>
+        <v>0.476</v>
       </c>
       <c r="L22" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M22" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="N22" t="n">
         <v>0.359</v>
@@ -4345,25 +4412,25 @@
         <v>24.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.803</v>
+        <v>0.805</v>
       </c>
       <c r="R22" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S22" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="T22" t="n">
-        <v>45.2</v>
+        <v>45</v>
       </c>
       <c r="U22" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V22" t="n">
         <v>15.8</v>
       </c>
       <c r="W22" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X22" t="n">
         <v>6.1</v>
@@ -4372,7 +4439,7 @@
         <v>3.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AA22" t="n">
         <v>20.2</v>
@@ -4381,31 +4448,31 @@
         <v>105.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
       </c>
       <c r="AF22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ22" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AK22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL22" t="n">
         <v>16</v>
@@ -4414,13 +4481,13 @@
         <v>16</v>
       </c>
       <c r="AN22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
       </c>
       <c r="AP22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ22" t="n">
         <v>2</v>
@@ -4429,10 +4496,10 @@
         <v>17</v>
       </c>
       <c r="AS22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT22" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AU22" t="n">
         <v>14</v>
@@ -4441,7 +4508,7 @@
         <v>28</v>
       </c>
       <c r="AW22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX22" t="n">
         <v>2</v>
@@ -4450,7 +4517,7 @@
         <v>3</v>
       </c>
       <c r="AZ22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA22" t="n">
         <v>18</v>
@@ -4459,7 +4526,7 @@
         <v>5</v>
       </c>
       <c r="BC22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-9-2013-14</t>
+          <t>2014-03-09</t>
         </is>
       </c>
     </row>
@@ -4578,7 +4645,7 @@
         <v>28</v>
       </c>
       <c r="AH23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI23" t="n">
         <v>21</v>
@@ -4605,34 +4672,34 @@
         <v>24</v>
       </c>
       <c r="AQ23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR23" t="n">
         <v>24</v>
       </c>
       <c r="AS23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT23" t="n">
         <v>20</v>
       </c>
       <c r="AU23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AV23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW23" t="n">
         <v>14</v>
       </c>
       <c r="AX23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY23" t="n">
         <v>25</v>
       </c>
       <c r="AZ23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-9-2013-14</t>
+          <t>2014-03-09</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-11.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4781,7 +4848,7 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP24" t="n">
         <v>13</v>
@@ -4808,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-9-2013-14</t>
+          <t>2014-03-09</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E25" t="n">
         <v>36</v>
       </c>
       <c r="F25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G25" t="n">
-        <v>0.581</v>
+        <v>0.59</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
@@ -4870,28 +4937,28 @@
         <v>38.7</v>
       </c>
       <c r="J25" t="n">
-        <v>84</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L25" t="n">
         <v>9.4</v>
       </c>
       <c r="M25" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.376</v>
+        <v>0.375</v>
       </c>
       <c r="O25" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P25" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.761</v>
+        <v>0.758</v>
       </c>
       <c r="R25" t="n">
         <v>11.6</v>
@@ -4906,19 +4973,19 @@
         <v>19.3</v>
       </c>
       <c r="V25" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W25" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X25" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y25" t="n">
         <v>4.2</v>
       </c>
       <c r="Z25" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="AA25" t="n">
         <v>21.3</v>
@@ -4927,10 +4994,10 @@
         <v>105.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AE25" t="n">
         <v>10</v>
@@ -4939,13 +5006,13 @@
         <v>9</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH25" t="n">
         <v>19</v>
       </c>
       <c r="AI25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ25" t="n">
         <v>10</v>
@@ -4957,13 +5024,13 @@
         <v>4</v>
       </c>
       <c r="AM25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP25" t="n">
         <v>9</v>
@@ -4984,10 +5051,10 @@
         <v>29</v>
       </c>
       <c r="AV25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX25" t="n">
         <v>14</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-9-2013-14</t>
+          <t>2014-03-09</t>
         </is>
       </c>
     </row>
@@ -5034,28 +5101,28 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E26" t="n">
         <v>42</v>
       </c>
       <c r="F26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G26" t="n">
-        <v>0.667</v>
+        <v>0.677</v>
       </c>
       <c r="H26" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I26" t="n">
         <v>39.6</v>
       </c>
       <c r="J26" t="n">
-        <v>87.7</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L26" t="n">
         <v>9.4</v>
@@ -5064,67 +5131,67 @@
         <v>25</v>
       </c>
       <c r="N26" t="n">
-        <v>0.376</v>
+        <v>0.377</v>
       </c>
       <c r="O26" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="P26" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.821</v>
+        <v>0.822</v>
       </c>
       <c r="R26" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="S26" t="n">
         <v>33.9</v>
       </c>
       <c r="T26" t="n">
-        <v>46.7</v>
+        <v>46.5</v>
       </c>
       <c r="U26" t="n">
         <v>23.4</v>
       </c>
       <c r="V26" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="W26" t="n">
         <v>5.6</v>
       </c>
       <c r="X26" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y26" t="n">
         <v>3.7</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB26" t="n">
-        <v>107.7</v>
+        <v>107.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AD26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
       </c>
       <c r="AF26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG26" t="n">
         <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI26" t="n">
         <v>2</v>
@@ -5133,13 +5200,13 @@
         <v>3</v>
       </c>
       <c r="AK26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN26" t="n">
         <v>6</v>
@@ -5148,7 +5215,7 @@
         <v>7</v>
       </c>
       <c r="AP26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
@@ -5166,7 +5233,7 @@
         <v>6</v>
       </c>
       <c r="AV26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW26" t="n">
         <v>30</v>
@@ -5175,19 +5242,19 @@
         <v>13</v>
       </c>
       <c r="AY26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ26" t="n">
         <v>7</v>
       </c>
       <c r="BA26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB26" t="n">
         <v>2</v>
       </c>
       <c r="BC26" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-9-2013-14</t>
+          <t>2014-03-09</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E27" t="n">
         <v>22</v>
       </c>
       <c r="F27" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G27" t="n">
-        <v>0.349</v>
+        <v>0.355</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
@@ -5243,64 +5310,64 @@
         <v>6.4</v>
       </c>
       <c r="M27" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="N27" t="n">
-        <v>0.338</v>
+        <v>0.341</v>
       </c>
       <c r="O27" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="P27" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.771</v>
+        <v>0.773</v>
       </c>
       <c r="R27" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S27" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T27" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U27" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="V27" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="W27" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X27" t="n">
         <v>4</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z27" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AA27" t="n">
         <v>23.1</v>
       </c>
       <c r="AB27" t="n">
-        <v>101.3</v>
+        <v>101.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.5</v>
+        <v>-2.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
       </c>
       <c r="AF27" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG27" t="n">
         <v>24</v>
@@ -5312,10 +5379,10 @@
         <v>19</v>
       </c>
       <c r="AJ27" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK27" t="n">
         <v>17</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>18</v>
       </c>
       <c r="AL27" t="n">
         <v>25</v>
@@ -5324,7 +5391,7 @@
         <v>25</v>
       </c>
       <c r="AN27" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO27" t="n">
         <v>4</v>
@@ -5333,7 +5400,7 @@
         <v>4</v>
       </c>
       <c r="AQ27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR27" t="n">
         <v>6</v>
@@ -5348,25 +5415,25 @@
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AX27" t="n">
         <v>28</v>
       </c>
       <c r="AY27" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AZ27" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BA27" t="n">
         <v>4</v>
       </c>
       <c r="BB27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC27" t="n">
         <v>21</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-9-2013-14</t>
+          <t>2014-03-09</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>6.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5488,13 +5555,13 @@
         <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5518,7 +5585,7 @@
         <v>4</v>
       </c>
       <c r="AR28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS28" t="n">
         <v>6</v>
@@ -5530,13 +5597,13 @@
         <v>2</v>
       </c>
       <c r="AV28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW28" t="n">
         <v>18</v>
       </c>
       <c r="AX28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY28" t="n">
         <v>16</v>
@@ -5545,13 +5612,13 @@
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB28" t="n">
         <v>7</v>
       </c>
       <c r="BC28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-9-2013-14</t>
+          <t>2014-03-09</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E29" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F29" t="n">
         <v>26</v>
       </c>
       <c r="G29" t="n">
-        <v>0.574</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="H29" t="n">
         <v>48.7</v>
@@ -5598,28 +5665,28 @@
         <v>36.4</v>
       </c>
       <c r="J29" t="n">
-        <v>82.3</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L29" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="M29" t="n">
         <v>22.9</v>
       </c>
       <c r="N29" t="n">
-        <v>0.369</v>
+        <v>0.365</v>
       </c>
       <c r="O29" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="P29" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.775</v>
+        <v>0.776</v>
       </c>
       <c r="R29" t="n">
         <v>11.7</v>
@@ -5628,7 +5695,7 @@
         <v>31.3</v>
       </c>
       <c r="T29" t="n">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="U29" t="n">
         <v>21.4</v>
@@ -5637,7 +5704,7 @@
         <v>14.1</v>
       </c>
       <c r="W29" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X29" t="n">
         <v>4.4</v>
@@ -5646,49 +5713,49 @@
         <v>4.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AA29" t="n">
         <v>22</v>
       </c>
       <c r="AB29" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE29" t="n">
         <v>12</v>
       </c>
       <c r="AF29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG29" t="n">
         <v>12</v>
       </c>
       <c r="AH29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL29" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AM29" t="n">
         <v>10</v>
       </c>
       <c r="AN29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO29" t="n">
         <v>6</v>
@@ -5703,10 +5770,10 @@
         <v>12</v>
       </c>
       <c r="AS29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU29" t="n">
         <v>16</v>
@@ -5715,16 +5782,16 @@
         <v>9</v>
       </c>
       <c r="AW29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX29" t="n">
         <v>22</v>
       </c>
       <c r="AY29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA29" t="n">
         <v>5</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-9-2013-14</t>
+          <t>2014-03-09</t>
         </is>
       </c>
     </row>
@@ -5840,16 +5907,16 @@
         <v>-6</v>
       </c>
       <c r="AD30" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE30" t="n">
         <v>24</v>
       </c>
       <c r="AF30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH30" t="n">
         <v>26</v>
@@ -5861,7 +5928,7 @@
         <v>26</v>
       </c>
       <c r="AK30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL30" t="n">
         <v>21</v>
@@ -5873,13 +5940,13 @@
         <v>20</v>
       </c>
       <c r="AO30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP30" t="n">
         <v>21</v>
       </c>
       <c r="AQ30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR30" t="n">
         <v>19</v>
@@ -5888,7 +5955,7 @@
         <v>23</v>
       </c>
       <c r="AT30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU30" t="n">
         <v>28</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-9-2013-14</t>
+          <t>2014-03-09</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>1</v>
       </c>
       <c r="AD31" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6037,13 +6104,13 @@
         <v>1</v>
       </c>
       <c r="AI31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ31" t="n">
         <v>8</v>
       </c>
       <c r="AK31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL31" t="n">
         <v>15</v>
@@ -6079,10 +6146,10 @@
         <v>13</v>
       </c>
       <c r="AW31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY31" t="n">
         <v>7</v>
@@ -6091,10 +6158,10 @@
         <v>16</v>
       </c>
       <c r="BA31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC31" t="n">
         <v>13</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-9-2013-14</t>
+          <t>2014-03-09</t>
         </is>
       </c>
     </row>
